--- a/docs/newYearProject_api_0.3v.xlsx
+++ b/docs/newYearProject_api_0.3v.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sujinworkspace\NewYearProject\api정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30C209C-48A4-4EB3-BB2B-79669272B123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E972A1-2B8F-4723-BA73-57CFA9302FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5130" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B39A122C-5FE9-4637-9C81-A77D518F6D51}"/>
+    <workbookView xWindow="6670" yWindow="1850" windowWidth="28800" windowHeight="15470" xr2:uid="{B39A122C-5FE9-4637-9C81-A77D518F6D51}"/>
   </bookViews>
   <sheets>
     <sheet name="request" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>HTTP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,10 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원가입 실패:중복된 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,14 +152,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로그인 실패:비밀번호 불일치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 실패:아이디 없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,10 +167,6 @@
 "url": "33a28297-f0ab-432c-bc34-ebff7fea1f76"
 }
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/mypage/{url}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -204,20 +188,6 @@
     <t>{
 "resultCode": "ERROR",
 "result":{
-"errorCode": "NOT_FOUND",
-"message": "해당 홈페이지를 찾을 수 없습니다."
-}
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url 에러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"resultCode": "ERROR",
-"result":{
 "errorCode": "INVALID_PERMISSION",
 "message": "접속 권한이 없습니다."
 }
@@ -225,7 +195,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>본인의 url이 아닐때</t>
+    <t>{
+"resultCode": "ERROR",
+"result":{
+"errorCode": "URL_NOT_FOUND",
+"message": "해당 URL을 찾을 수 없습니다."
+}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구 페이지 접속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지: url 에러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 실패: 아이디 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 실패: 비밀번호 불일치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 실패: 중복된 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지: 인증에러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"resultCode": "SUCCESS",
+"result":{
+{
+"nickName":"sujan"
+}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구페이지: url 에러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/rabbit/mypage/{url}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/rabbit/{url}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -250,12 +276,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -301,7 +333,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -322,6 +354,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -639,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D9E06A-517D-4A3E-9023-DAF9C9FD353C}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -665,7 +703,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="5"/>
     </row>
@@ -695,13 +733,13 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -709,19 +747,30 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E5" s="1"/>
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E6" s="1"/>
@@ -744,10 +793,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE62AAF-3A38-4305-8F5C-D173E5501EE9}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -769,7 +818,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -801,7 +850,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="5"/>
@@ -814,10 +863,10 @@
         <v>200</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="5"/>
@@ -830,10 +879,10 @@
         <v>401</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -845,10 +894,10 @@
         <v>404</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -860,10 +909,10 @@
         <v>200</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -875,10 +924,10 @@
         <v>404</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -890,15 +939,40 @@
         <v>401</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="C10" s="1"/>
+    <row r="10" spans="1:6" ht="119" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>200</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="119" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>404</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
